--- a/bug-list.xlsx
+++ b/bug-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="288" windowWidth="14808" windowHeight="9300" activeTab="1"/>
+    <workbookView xWindow="8100" yWindow="285" windowWidth="14805" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bug-list" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>登陆页面的配置，点开后就无法关闭</t>
   </si>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>李玉林</t>
+  </si>
+  <si>
+    <t>教师机重连之后无法控制学生机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -666,14 +670,14 @@
       <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="64.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="64.125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -690,7 +694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -709,7 +713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,7 +721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -728,7 +732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -736,7 +740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -747,7 +751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -755,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -763,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -771,7 +775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -779,7 +783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -790,7 +794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -801,7 +805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -809,7 +813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -820,7 +824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -828,7 +832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D17" s="1"/>
     </row>
   </sheetData>
@@ -899,19 +903,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="57.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.75" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -928,7 +932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -939,7 +943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -950,7 +954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -958,7 +962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -966,12 +970,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +1013,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bug-list.xlsx
+++ b/bug-list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>登陆页面的配置，点开后就无法关闭</t>
   </si>
@@ -906,7 +906,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -957,6 +957,9 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>

--- a/bug-list.xlsx
+++ b/bug-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="288" windowWidth="14808" windowHeight="9300" activeTab="1"/>
+    <workbookView xWindow="8100" yWindow="288" windowWidth="14808" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="bug-list" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>登陆页面的配置，点开后就无法关闭</t>
   </si>
@@ -168,13 +168,186 @@
   </si>
   <si>
     <t>李玉林</t>
+  </si>
+  <si>
+    <t>如果未配置服务器地址，点击进入课堂模式，会随机性的提示配置服务器地址。提示一次就可以了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修改笔记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议改成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编辑笔记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按保存笔记有时没有响应，尤其是第一次建笔记的时候。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记保存的同时就退出，那和退出X按钮的区别是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了笔记后，书架的笔记没有笔记本显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑笔记窗口，在有的分辨率下，就不居中了。窗口位置算法还是要调整。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android返回按钮工作很好，但功能是返回书架。如果我点击整理书籍，然后点Android返回按钮就退出阅读器了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>目前按钮都偏小，点击精度要求高，能不能扩大响应区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>域？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户误以为没有相应。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>书架上刷新和退出选项不工作。目前退出当前登录帐号是怎么考虑的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果下拉菜单的退出是退出阅读器，建议去掉，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>返回就可以了。下拉有点考验用户体验。菜单项太小。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高亮文本，退出书本后再次进入就消失了，这个应该跟笔记一样，是能保存的吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师机每次登陆时，都要在配置那点一下保存，即使之前已经输入了IP，否则点击进入课堂模式时就会提示填写班级服务器IP。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +378,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -235,6 +427,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -660,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -824,12 +1019,110 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="46.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -901,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/bug-list.xlsx
+++ b/bug-list.xlsx
@@ -11,12 +11,12 @@
     <sheet name="issue" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>登陆页面的配置，点开后就无法关闭</t>
   </si>
@@ -340,6 +340,30 @@
   </si>
   <si>
     <t>教师机每次登陆时，都要在配置那点一下保存，即使之前已经输入了IP，否则点击进入课堂模式时就会提示填写班级服务器IP。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这期未实现刷新功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -855,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -868,7 +892,7 @@
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -884,16 +908,22 @@
       <c r="E1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -904,15 +934,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -922,16 +955,22 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -941,24 +980,33 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,7 +1014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -974,7 +1022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -985,7 +1033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -996,7 +1044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1095,8 +1143,14 @@
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
       <c r="C25" t="s">
         <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">

--- a/bug-list.xlsx
+++ b/bug-list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>登陆页面的配置，点开后就无法关闭</t>
   </si>
@@ -364,6 +364,10 @@
   </si>
   <si>
     <t>这期未实现刷新功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_1.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -881,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1083,7 +1087,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1115,7 +1119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="46.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1152,8 +1156,11 @@
       <c r="D25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1161,7 +1168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1169,13 +1176,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
   </sheetData>

--- a/bug-list.xlsx
+++ b/bug-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="288" windowWidth="14808" windowHeight="9300"/>
+    <workbookView xWindow="8100" yWindow="285" windowWidth="14805" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="bug-list" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>登陆页面的配置，点开后就无法关闭</t>
   </si>
@@ -368,6 +368,10 @@
   </si>
   <si>
     <t>v_1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功显示最新笔记信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -886,17 +890,17 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="64.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="64.125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -916,7 +920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -938,7 +942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -949,7 +953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -963,7 +967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,7 +978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -988,7 +992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1056,7 +1060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1087,47 +1091,65 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1135,7 +1157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1143,7 +1165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1160,7 +1182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1168,7 +1190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1176,13 +1198,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
   </sheetData>
@@ -1259,13 +1281,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="57.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.75" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1282,7 +1304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1304,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1320,7 +1342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1352,7 +1374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bug-list.xlsx
+++ b/bug-list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>登陆页面的配置，点开后就无法关闭</t>
   </si>
@@ -890,7 +890,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1160,6 +1160,9 @@
     <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>

--- a/bug-list.xlsx
+++ b/bug-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="285" windowWidth="14805" windowHeight="9300"/>
+    <workbookView xWindow="8100" yWindow="288" windowWidth="14808" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="bug-list" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>登陆页面的配置，点开后就无法关闭</t>
   </si>
@@ -372,6 +372,10 @@
   </si>
   <si>
     <t>保存成功显示最新笔记信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -889,18 +893,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.125" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="64.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -920,7 +924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -942,7 +946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -953,12 +957,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -967,7 +971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,7 +982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -992,7 +996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,18 +1045,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1091,7 +1098,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1101,8 +1108,11 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1126,8 +1136,11 @@
       <c r="D20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1137,27 +1150,36 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1167,8 +1189,11 @@
       <c r="C24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1185,29 +1210,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
       <c r="C27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
   </sheetData>
@@ -1281,16 +1315,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.75" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="57.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1307,18 +1341,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1329,7 +1363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1337,15 +1371,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1377,7 +1414,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bug-list.xlsx
+++ b/bug-list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t>登陆页面的配置，点开后就无法关闭</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>已解决</t>
-  </si>
-  <si>
-    <t>进行中</t>
   </si>
   <si>
     <t>status</t>
@@ -893,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -909,19 +906,19 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -929,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -940,10 +937,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -979,21 +979,21 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -1053,10 +1056,10 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
@@ -1064,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
@@ -1072,167 +1075,179 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1"/>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="46.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
         <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -1315,7 +1330,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1329,65 +1344,65 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
